--- a/parameter_list/OPTICS+parameterTuning.xlsx
+++ b/parameter_list/OPTICS+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,114 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>min_samples</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>xi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>silhouette_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>calinski_harabasz_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>davies_bouldin_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>parameters_combinations</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03762977471657987</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03218532098098586</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.612207324678117</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.989221675316708</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>"3.0,0.05"</t>
         </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03724217550030738</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>"3.0,0.05"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-0.06151203096130783</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.314041854882188</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.020975915625496</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>"3.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03484472855322126</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>"3.0,0.05"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>-0.3052420922255502</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.044383182738952</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.784746902226593</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>"3.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -516,51 +558,78 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03218532098098586</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"3.0,0.05"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>-0.1776428541523509</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.78834963868914</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.893645333744662</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>"5.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0489137149716003</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>"3.0,0.1"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>-0.3900816369759543</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.10930667800427</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.806606804325284</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>"5.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05446049738783702</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>"3.0,0.1"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>-0.7356244817758231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.766811728906793</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.805725098931546</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>"5.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -570,69 +639,105 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05494654016615674</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>"3.0,0.1"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0.03762977471657987</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.972385480249335</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.000904462057665</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>"3.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.06151203096130783</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.05494654016615674</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.631710150109719</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.999125890954331</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>"3.0,0.1"</t>
         </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1776428541523509</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>"5.0,0.05"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>-0.3057742167923257</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.295056472363915</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.92802448369639</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>"3.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1821847387652772</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1872873232022468</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.23641876988347</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.86806546439331</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>"5.0,0.05"</t>
         </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -642,87 +747,132 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1872873232022468</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>"5.0,0.05"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>-0.3767357729699358</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.318561132562392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.039570522137987</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>"5.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1873220843882278</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>"5.0,0.05"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>-0.7466001083128073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.582227357419995</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.746506563779898</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>"5.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.303154184312324</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>"3.0,0.2"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>0.03484472855322126</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.99327165735754</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.756052455052638</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>"3.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3052420922255502</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>"3.0,0.2"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>-0.05446049738783702</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.161514835701677</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.740286753215011</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>"3.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3057742167923257</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.3146043727565101</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.036736563195038</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.764448916966094</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>"3.0,0.2"</t>
         </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -732,51 +882,78 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3146043727565101</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>"3.0,0.2"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>-0.1821847387652772</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.58616396305173</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.773146439967561</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>"5.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3767357729699358</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3929336478986195</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.563369042107215</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.740782978287251</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>"5.0,0.1"</t>
         </is>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3900816369759543</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>"5.0,0.1"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>-0.7349472476005972</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.48220524151526</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.751492432965592</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>"5.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -786,33 +963,51 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3912989936874302</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>"5.0,0.1"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>0.03724217550030738</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10.90308135698014</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.006095243697849</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>"3.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3929336478986195</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>"5.0,0.1"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>-0.0489137149716003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.542162230988206</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.099294571273656</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>"3.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -822,69 +1017,105 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7314071469049518</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>"5.0,0.2"</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>-0.303154184312324</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.027496130430493</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.927696090301498</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>"3.0,0.2"</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.7349472476005972</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>"5.0,0.2"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>-0.1873220843882278</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.87187122828735</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.16521742620727</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>"5.0,0.05"</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.7356244817758231</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>"5.0,0.2"</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>-0.3912989936874302</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.721997146765993</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.157344880849866</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>"5.0,0.1"</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7466001083128073</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.7314071469049518</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.432518894361809</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.322839396082375</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>"5.0,0.2"</t>
         </is>
-      </c>
-      <c r="D25" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/parameter_list/OPTICS+parameterTuning.xlsx
+++ b/parameter_list/OPTICS+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,23 +477,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03218532098098586</v>
+        <v>-0.1869760296315885</v>
       </c>
       <c r="E2" t="n">
-        <v>9.612207324678117</v>
+        <v>23.8490710197015</v>
       </c>
       <c r="F2" t="n">
-        <v>1.989221675316708</v>
+        <v>2.578697825245244</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"3.0,0.05"</t>
+          <t>"10.0,0.001"</t>
         </is>
       </c>
     </row>
@@ -504,23 +504,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0.003</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06151203096130783</v>
+        <v>-0.1956603168744497</v>
       </c>
       <c r="E3" t="n">
-        <v>8.314041854882188</v>
+        <v>23.02784662885878</v>
       </c>
       <c r="F3" t="n">
-        <v>2.020975915625496</v>
+        <v>2.300885204949084</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"3.0,0.1"</t>
+          <t>"10.0,0.003"</t>
         </is>
       </c>
     </row>
@@ -531,23 +531,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.0009</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3052420922255502</v>
+        <v>-0.1883958686856909</v>
       </c>
       <c r="E4" t="n">
-        <v>6.044383182738952</v>
+        <v>23.81255176809393</v>
       </c>
       <c r="F4" t="n">
-        <v>1.784746902226593</v>
+        <v>2.559856436328152</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"3.0,0.2"</t>
+          <t>"10.0,0.0009"</t>
         </is>
       </c>
     </row>
@@ -558,23 +558,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.002</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1776428541523509</v>
+        <v>-0.1895788622156332</v>
       </c>
       <c r="E5" t="n">
-        <v>12.78834963868914</v>
+        <v>23.42598812989002</v>
       </c>
       <c r="F5" t="n">
-        <v>1.893645333744662</v>
+        <v>2.746623218156602</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"5.0,0.05"</t>
+          <t>"10.0,0.002"</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3900816369759543</v>
+        <v>-0.2924856561650858</v>
       </c>
       <c r="E6" t="n">
-        <v>10.10930667800427</v>
+        <v>19.6730063142279</v>
       </c>
       <c r="F6" t="n">
-        <v>1.806606804325284</v>
+        <v>2.394094167079523</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"5.0,0.1"</t>
+          <t>"15.0,0.001"</t>
         </is>
       </c>
     </row>
@@ -612,509 +612,1589 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7356244817758231</v>
+        <v>-0.2937360138789405</v>
       </c>
       <c r="E7" t="n">
-        <v>8.766811728906793</v>
+        <v>19.8770101685262</v>
       </c>
       <c r="F7" t="n">
-        <v>1.805725098931546</v>
+        <v>2.388194647489311</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"5.0,0.2"</t>
+          <t>"15.0,0.003"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05</v>
+        <v>0.0009</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03762977471657987</v>
+        <v>-0.2943422404720529</v>
       </c>
       <c r="E8" t="n">
-        <v>8.972385480249335</v>
+        <v>19.66026501541445</v>
       </c>
       <c r="F8" t="n">
-        <v>2.000904462057665</v>
+        <v>2.385788588815081</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"3.0,0.05"</t>
+          <t>"15.0,0.0009"</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05494654016615674</v>
+        <v>-0.2912586349548638</v>
       </c>
       <c r="E9" t="n">
-        <v>7.631710150109719</v>
+        <v>19.81809001702614</v>
       </c>
       <c r="F9" t="n">
-        <v>1.999125890954331</v>
+        <v>2.399930907236209</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"3.0,0.1"</t>
+          <t>"15.0,0.002"</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3057742167923257</v>
+        <v>-0.05131539381879007</v>
       </c>
       <c r="E10" t="n">
-        <v>5.295056472363915</v>
+        <v>17.55371303108925</v>
       </c>
       <c r="F10" t="n">
-        <v>1.92802448369639</v>
+        <v>1.888606597220061</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"3.0,0.2"</t>
+          <t>"5.0,0.001"</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1872873232022468</v>
+        <v>-0.05599975429061398</v>
       </c>
       <c r="E11" t="n">
-        <v>10.23641876988347</v>
+        <v>17.50155474552369</v>
       </c>
       <c r="F11" t="n">
-        <v>1.86806546439331</v>
+        <v>1.880020570040397</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"5.0,0.05"</t>
+          <t>"5.0,0.003"</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0.0009</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3767357729699358</v>
+        <v>-0.05131539381879007</v>
       </c>
       <c r="E12" t="n">
-        <v>8.318561132562392</v>
+        <v>17.55371303108925</v>
       </c>
       <c r="F12" t="n">
-        <v>2.039570522137987</v>
+        <v>1.888606597220061</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"5.0,0.1"</t>
+          <t>"5.0,0.0009"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2</v>
+        <v>0.002</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7466001083128073</v>
+        <v>-0.05179937591682965</v>
       </c>
       <c r="E13" t="n">
-        <v>5.582227357419995</v>
+        <v>17.53747987782078</v>
       </c>
       <c r="F13" t="n">
-        <v>1.746506563779898</v>
+        <v>1.886943738903015</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"5.0,0.2"</t>
+          <t>"5.0,0.002"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03484472855322126</v>
+        <v>0.09479056851219492</v>
       </c>
       <c r="E14" t="n">
-        <v>10.99327165735754</v>
+        <v>11.65918629444355</v>
       </c>
       <c r="F14" t="n">
-        <v>1.756052455052638</v>
+        <v>1.96881619969381</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"3.0,0.05"</t>
+          <t>"3.0,0.001"</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05446049738783702</v>
+        <v>0.09137217867447292</v>
       </c>
       <c r="E15" t="n">
-        <v>9.161514835701677</v>
+        <v>11.62123547727945</v>
       </c>
       <c r="F15" t="n">
-        <v>1.740286753215011</v>
+        <v>1.972247749100766</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"3.0,0.1"</t>
+          <t>"3.0,0.003"</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>0.0009</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3146043727565101</v>
+        <v>0.09489551057434993</v>
       </c>
       <c r="E16" t="n">
-        <v>6.036736563195038</v>
+        <v>11.66182812248834</v>
       </c>
       <c r="F16" t="n">
-        <v>1.764448916966094</v>
+        <v>1.969720373791016</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"3.0,0.2"</t>
+          <t>"3.0,0.0009"</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05</v>
+        <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1821847387652772</v>
+        <v>0.09382619086678994</v>
       </c>
       <c r="E17" t="n">
-        <v>12.58616396305173</v>
+        <v>11.63770444169911</v>
       </c>
       <c r="F17" t="n">
-        <v>1.773146439967561</v>
+        <v>1.972448829567823</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"5.0,0.05"</t>
+          <t>"3.0,0.002"</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3929336478986195</v>
+        <v>-0.2039556338845752</v>
       </c>
       <c r="E18" t="n">
-        <v>9.563369042107215</v>
+        <v>19.57723541872945</v>
       </c>
       <c r="F18" t="n">
-        <v>1.740782978287251</v>
+        <v>2.002861237015828</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"5.0,0.1"</t>
+          <t>"10.0,0.001"</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2</v>
+        <v>0.003</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7349472476005972</v>
+        <v>-0.2098872956849691</v>
       </c>
       <c r="E19" t="n">
-        <v>6.48220524151526</v>
+        <v>19.40516563718604</v>
       </c>
       <c r="F19" t="n">
-        <v>1.751492432965592</v>
+        <v>2.021372291367849</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"5.0,0.2"</t>
+          <t>"10.0,0.003"</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05</v>
+        <v>0.0009</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03724217550030738</v>
+        <v>-0.2038811255004036</v>
       </c>
       <c r="E20" t="n">
-        <v>10.90308135698014</v>
+        <v>19.57764134574205</v>
       </c>
       <c r="F20" t="n">
-        <v>2.006095243697849</v>
+        <v>2.003031602357115</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"3.0,0.05"</t>
+          <t>"10.0,0.0009"</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0489137149716003</v>
+        <v>-0.206932228274965</v>
       </c>
       <c r="E21" t="n">
-        <v>8.542162230988206</v>
+        <v>19.52454534955617</v>
       </c>
       <c r="F21" t="n">
-        <v>2.099294571273656</v>
+        <v>2.013154031517666</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"3.0,0.1"</t>
+          <t>"10.0,0.002"</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.001</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.303154184312324</v>
+        <v>-0.27772775177932</v>
       </c>
       <c r="E22" t="n">
-        <v>6.027496130430493</v>
+        <v>22.0043781881687</v>
       </c>
       <c r="F22" t="n">
-        <v>1.927696090301498</v>
+        <v>2.179095800411861</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"3.0,0.2"</t>
+          <t>"15.0,0.001"</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05</v>
+        <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1873220843882278</v>
+        <v>-0.2817185432495597</v>
       </c>
       <c r="E23" t="n">
-        <v>11.87187122828735</v>
+        <v>21.85659784549699</v>
       </c>
       <c r="F23" t="n">
-        <v>2.16521742620727</v>
+        <v>2.185081131817867</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"5.0,0.05"</t>
+          <t>"15.0,0.003"</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1</v>
+        <v>0.0009</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3912989936874302</v>
+        <v>-0.27772775177932</v>
       </c>
       <c r="E24" t="n">
-        <v>9.721997146765993</v>
+        <v>22.0043781881687</v>
       </c>
       <c r="F24" t="n">
-        <v>2.157344880849866</v>
+        <v>2.179095800411861</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"5.0,0.1"</t>
+          <t>"15.0,0.0009"</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.2798551268567951</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.02716003226982</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.197964687844958</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>"15.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.06321980967867286</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.0625099531067</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.910330131761787</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>"5.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.06510879682861122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.02383286961</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.902498777864504</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>"5.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.06380375902823159</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.9890089340352</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.912903694297692</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>"5.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.0640795465389544</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.0565356062904</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.905476356586133</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>"5.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1041187715298048</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.780778272855267</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.057305680184671</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>"3.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1024871335126591</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.734635076224908</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.050907724742053</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>"3.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1043474121442304</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.790504950606058</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.072041754966214</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>"3.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_2_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.102824444493839</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.774311049676628</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.084506107243381</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>"3.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1996875319992182</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.65340935462318</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.888492534006438</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>"10.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.2036218445709847</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22.56414398900304</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.887575808779029</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>"10.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.1996875319992182</v>
+      </c>
+      <c r="E36" t="n">
+        <v>22.65340935462318</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.888492534006438</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>"10.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.2008373766121211</v>
+      </c>
+      <c r="E37" t="n">
+        <v>22.61124659634632</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.887386131503165</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>"10.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.2660215383389825</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25.21258534771048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.145730306974552</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>"15.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>15</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.2724075948009205</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24.90617596721392</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.142887042195568</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>"15.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.2638449716713941</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.2399711501563</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.147385951440029</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>"15.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.2681333697324509</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.0354008226821</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.147534156151842</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>"15.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.05599477622628955</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16.18971947149976</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.78060413951874</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>"5.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.05889651253181013</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16.0198108154276</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.785522443130752</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>"5.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.05599477622628955</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16.18971947149976</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.78060413951874</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>"5.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.05692040421337275</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.18563008110135</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.780598241750019</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>"5.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.09589180129085027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.05901167967964</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.752092536294155</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>"3.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.09375125982577079</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.02952004831228</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.750985043960587</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>"3.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0960653335112512</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.06291405363245</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.752493327711819</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>"3.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.09425163437684139</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.03439598174002</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.750173237280777</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>"3.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.1929954325469355</v>
+      </c>
+      <c r="E50" t="n">
+        <v>24.03914348516345</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.350849921552731</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>"10.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1973503991574427</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24.02804769269041</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.316845828844373</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>"10.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.1919087358780622</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24.01717956906514</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.343166754080991</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>"10.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.1942279634454158</v>
+      </c>
+      <c r="E53" t="n">
+        <v>24.02758799014441</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.315454686839354</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>"10.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.2514387942797484</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30.04535858278152</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.293926869863224</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>"15.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.2572720616383831</v>
+      </c>
+      <c r="E55" t="n">
+        <v>29.65322377949935</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.922355001088572</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>"15.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.2524326799105155</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30.02638029392439</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.405662961954763</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>"15.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.2555424686294654</v>
+      </c>
+      <c r="E57" t="n">
+        <v>30.16336974213458</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.661111432558179</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>"15.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.7314071469049518</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.432518894361809</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.322839396082375</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>"5.0,0.2"</t>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.06255323883118645</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.21033935942128</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.159990529529721</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>"5.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.06532890696247806</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14.20693855441767</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.187578949811617</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>"5.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.06245734022734664</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14.21372976638014</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.159568526602816</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>"5.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.06298848904713086</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14.19525526736019</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.190228250188266</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>"5.0,0.002"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.09792210221830637</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.66429409644679</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.984141861525592</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>"3.0,0.001"</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.09616728492345691</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.70691298896612</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.974822876919428</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>"3.0,0.003"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.09792210221830637</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.66429409644679</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.984141861525592</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>"3.0,0.0009"</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.09694332640218742</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.69605273135777</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.978936633918562</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>"3.0,0.002"</t>
         </is>
       </c>
     </row>
